--- a/admin/Thu nhập theo tháng.xlsx
+++ b/admin/Thu nhập theo tháng.xlsx
@@ -32,7 +32,7 @@
     <t>THU NHẬP</t>
   </si>
   <si>
-    <t>1,502,025,000</t>
+    <t>1,502,405,000</t>
   </si>
   <si>
     <t>100,000</t>
@@ -53,10 +53,10 @@
     <t xml:space="preserve">Tổng cộng: </t>
   </si>
   <si>
-    <t>10,113</t>
-  </si>
-  <si>
-    <t>1,506,130,000</t>
+    <t>10,119</t>
+  </si>
+  <si>
+    <t>1,506,510,000</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
         <v>2020</v>
       </c>
       <c r="D2" s="1">
-        <v>10037</v>
+        <v>10043</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
